--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.703632666666667</v>
+        <v>2.221056333333333</v>
       </c>
       <c r="H2">
-        <v>11.110898</v>
+        <v>6.663169</v>
       </c>
       <c r="I2">
-        <v>0.326750677445568</v>
+        <v>0.2217545441472213</v>
       </c>
       <c r="J2">
-        <v>0.326750677445568</v>
+        <v>0.2217545441472213</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.466623</v>
+        <v>0.292811</v>
       </c>
       <c r="N2">
-        <v>4.399869</v>
+        <v>0.878433</v>
       </c>
       <c r="O2">
-        <v>0.4555124025226199</v>
+        <v>0.1205152987902963</v>
       </c>
       <c r="P2">
-        <v>0.4555124025226199</v>
+        <v>0.1205152987902963</v>
       </c>
       <c r="Q2">
-        <v>5.431832852484667</v>
+        <v>0.6503497260196667</v>
       </c>
       <c r="R2">
-        <v>48.886495672362</v>
+        <v>5.853147534177</v>
       </c>
       <c r="S2">
-        <v>0.1488389861091243</v>
+        <v>0.02672481514600833</v>
       </c>
       <c r="T2">
-        <v>0.1488389861091243</v>
+        <v>0.02672481514600833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.703632666666667</v>
+        <v>2.221056333333333</v>
       </c>
       <c r="H3">
-        <v>11.110898</v>
+        <v>6.663169</v>
       </c>
       <c r="I3">
-        <v>0.326750677445568</v>
+        <v>0.2217545441472213</v>
       </c>
       <c r="J3">
-        <v>0.326750677445568</v>
+        <v>0.2217545441472213</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>3.213833</v>
       </c>
       <c r="O3">
-        <v>0.3327237222600217</v>
+        <v>0.4409170013616456</v>
       </c>
       <c r="P3">
-        <v>0.3327237222600217</v>
+        <v>0.4409170013616455</v>
       </c>
       <c r="Q3">
-        <v>3.967618961337112</v>
+        <v>2.379368046308556</v>
       </c>
       <c r="R3">
-        <v>35.70857065203401</v>
+        <v>21.414312416777</v>
       </c>
       <c r="S3">
-        <v>0.1087177016506731</v>
+        <v>0.09777534864371146</v>
       </c>
       <c r="T3">
-        <v>0.1087177016506731</v>
+        <v>0.09777534864371146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.703632666666667</v>
+        <v>2.221056333333333</v>
       </c>
       <c r="H4">
-        <v>11.110898</v>
+        <v>6.663169</v>
       </c>
       <c r="I4">
-        <v>0.326750677445568</v>
+        <v>0.2217545441472213</v>
       </c>
       <c r="J4">
-        <v>0.326750677445568</v>
+        <v>0.2217545441472213</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6818206666666667</v>
+        <v>1.065569666666667</v>
       </c>
       <c r="N4">
-        <v>2.045462</v>
+        <v>3.196709</v>
       </c>
       <c r="O4">
-        <v>0.2117638752173583</v>
+        <v>0.4385676998480583</v>
       </c>
       <c r="P4">
-        <v>0.2117638752173583</v>
+        <v>0.4385676998480582</v>
       </c>
       <c r="Q4">
-        <v>2.525213293875112</v>
+        <v>2.366690256757889</v>
       </c>
       <c r="R4">
-        <v>22.726919644876</v>
+        <v>21.300212310821</v>
       </c>
       <c r="S4">
-        <v>0.06919398968577056</v>
+        <v>0.09725438035750153</v>
       </c>
       <c r="T4">
-        <v>0.06919398968577056</v>
+        <v>0.09725438035750153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>21.37079</v>
       </c>
       <c r="I5">
-        <v>0.6284748640521197</v>
+        <v>0.7112336178950279</v>
       </c>
       <c r="J5">
-        <v>0.6284748640521197</v>
+        <v>0.711233617895028</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.466623</v>
+        <v>0.292811</v>
       </c>
       <c r="N5">
-        <v>4.399869</v>
+        <v>0.878433</v>
       </c>
       <c r="O5">
-        <v>0.4555124025226199</v>
+        <v>0.1205152987902963</v>
       </c>
       <c r="P5">
-        <v>0.4555124025226199</v>
+        <v>0.1205152987902963</v>
       </c>
       <c r="Q5">
-        <v>10.44763071405667</v>
+        <v>2.085867463563333</v>
       </c>
       <c r="R5">
-        <v>94.02867642650999</v>
+        <v>18.77280717207</v>
       </c>
       <c r="S5">
-        <v>0.286278095249458</v>
+        <v>0.08571453197032272</v>
       </c>
       <c r="T5">
-        <v>0.286278095249458</v>
+        <v>0.08571453197032274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.37079</v>
       </c>
       <c r="I6">
-        <v>0.6284748640521197</v>
+        <v>0.7112336178950279</v>
       </c>
       <c r="J6">
-        <v>0.6284748640521197</v>
+        <v>0.711233617895028</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>3.213833</v>
       </c>
       <c r="O6">
-        <v>0.3327237222600217</v>
+        <v>0.4409170013616456</v>
       </c>
       <c r="P6">
-        <v>0.3327237222600217</v>
+        <v>0.4409170013616455</v>
       </c>
       <c r="Q6">
         <v>7.631350015341112</v>
@@ -818,10 +818,10 @@
         <v>68.68215013807</v>
       </c>
       <c r="S6">
-        <v>0.2091084961142824</v>
+        <v>0.3135949940698701</v>
       </c>
       <c r="T6">
-        <v>0.2091084961142824</v>
+        <v>0.3135949940698701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>21.37079</v>
       </c>
       <c r="I7">
-        <v>0.6284748640521197</v>
+        <v>0.7112336178950279</v>
       </c>
       <c r="J7">
-        <v>0.6284748640521197</v>
+        <v>0.711233617895028</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6818206666666667</v>
+        <v>1.065569666666667</v>
       </c>
       <c r="N7">
-        <v>2.045462</v>
+        <v>3.196709</v>
       </c>
       <c r="O7">
-        <v>0.2117638752173583</v>
+        <v>0.4385676998480583</v>
       </c>
       <c r="P7">
-        <v>0.2117638752173583</v>
+        <v>0.4385676998480582</v>
       </c>
       <c r="Q7">
-        <v>4.857015428331112</v>
+        <v>7.590688525567779</v>
       </c>
       <c r="R7">
-        <v>43.71313885498</v>
+        <v>68.31619673011001</v>
       </c>
       <c r="S7">
-        <v>0.1330882726883793</v>
+        <v>0.3119240918548352</v>
       </c>
       <c r="T7">
-        <v>0.1330882726883793</v>
+        <v>0.3119240918548352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5075066666666667</v>
+        <v>0.6711793333333332</v>
       </c>
       <c r="H8">
-        <v>1.52252</v>
+        <v>2.013538</v>
       </c>
       <c r="I8">
-        <v>0.04477445850231242</v>
+        <v>0.06701183795775068</v>
       </c>
       <c r="J8">
-        <v>0.04477445850231242</v>
+        <v>0.06701183795775068</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.466623</v>
+        <v>0.292811</v>
       </c>
       <c r="N8">
-        <v>4.399869</v>
+        <v>0.878433</v>
       </c>
       <c r="O8">
-        <v>0.4555124025226199</v>
+        <v>0.1205152987902963</v>
       </c>
       <c r="P8">
-        <v>0.4555124025226199</v>
+        <v>0.1205152987902963</v>
       </c>
       <c r="Q8">
-        <v>0.7443209499866666</v>
+        <v>0.1965286917726666</v>
       </c>
       <c r="R8">
-        <v>6.69888854988</v>
+        <v>1.768758225954</v>
       </c>
       <c r="S8">
-        <v>0.02039532116403768</v>
+        <v>0.008075951673965243</v>
       </c>
       <c r="T8">
-        <v>0.02039532116403768</v>
+        <v>0.008075951673965241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5075066666666667</v>
+        <v>0.6711793333333332</v>
       </c>
       <c r="H9">
-        <v>1.52252</v>
+        <v>2.013538</v>
       </c>
       <c r="I9">
-        <v>0.04477445850231242</v>
+        <v>0.06701183795775068</v>
       </c>
       <c r="J9">
-        <v>0.04477445850231242</v>
+        <v>0.06701183795775068</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>3.213833</v>
       </c>
       <c r="O9">
-        <v>0.3327237222600217</v>
+        <v>0.4409170013616456</v>
       </c>
       <c r="P9">
-        <v>0.3327237222600217</v>
+        <v>0.4409170013616455</v>
       </c>
       <c r="Q9">
-        <v>0.5436805576844445</v>
+        <v>0.7190194301282222</v>
       </c>
       <c r="R9">
-        <v>4.89312501916</v>
+        <v>6.471174871153999</v>
       </c>
       <c r="S9">
-        <v>0.01489752449506626</v>
+        <v>0.02954665864806393</v>
       </c>
       <c r="T9">
-        <v>0.01489752449506626</v>
+        <v>0.02954665864806392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5075066666666667</v>
+        <v>0.6711793333333332</v>
       </c>
       <c r="H10">
-        <v>1.52252</v>
+        <v>2.013538</v>
       </c>
       <c r="I10">
-        <v>0.04477445850231242</v>
+        <v>0.06701183795775068</v>
       </c>
       <c r="J10">
-        <v>0.04477445850231242</v>
+        <v>0.06701183795775068</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6818206666666667</v>
+        <v>1.065569666666667</v>
       </c>
       <c r="N10">
-        <v>2.045462</v>
+        <v>3.196709</v>
       </c>
       <c r="O10">
-        <v>0.2117638752173583</v>
+        <v>0.4385676998480583</v>
       </c>
       <c r="P10">
-        <v>0.2117638752173583</v>
+        <v>0.4385676998480582</v>
       </c>
       <c r="Q10">
-        <v>0.3460285338044445</v>
+        <v>0.7151883384935556</v>
       </c>
       <c r="R10">
-        <v>3.114256804240001</v>
+        <v>6.436695046441999</v>
       </c>
       <c r="S10">
-        <v>0.009481612843208477</v>
+        <v>0.02938922763572152</v>
       </c>
       <c r="T10">
-        <v>0.009481612843208477</v>
+        <v>0.02938922763572151</v>
       </c>
     </row>
   </sheetData>
